--- a/Luban/Configs/Datas/__tables__.xlsx
+++ b/Luban/Configs/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A80247-C596-475E-861B-D52BFB078A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B17E25-EE0D-4F79-9B52-F751273EFE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>CardDatas\UnitCards.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>card.SpellItems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDatas\SpellCards.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -476,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,6 +617,20 @@
         <v>32</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Configs/Datas/__tables__.xlsx
+++ b/Luban/Configs/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B17E25-EE0D-4F79-9B52-F751273EFE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4F37E4-754D-4631-9C93-72AAE9B4441B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>CardDatas\SpellCards.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill.SkillItems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDatas\CharaSkills.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -631,6 +643,20 @@
         <v>35</v>
       </c>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Configs/Datas/__tables__.xlsx
+++ b/Luban/Configs/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4F37E4-754D-4631-9C93-72AAE9B4441B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B816A5-0958-4666-8A8F-EA3E7296C6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -145,6 +145,30 @@
   </si>
   <si>
     <t>SkillDatas\CharaSkills.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseBuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff.BaseBuffItems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff.BuffItems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffDatas\Buffs.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffDatas\BaseBuffDefine.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -657,6 +681,34 @@
         <v>38</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Configs/Datas/__tables__.xlsx
+++ b/Luban/Configs/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B816A5-0958-4666-8A8F-EA3E7296C6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE957CA3-C8CD-4703-B3AF-21715BE3EB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="3440" windowWidth="19200" windowHeight="10250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -169,6 +169,42 @@
   </si>
   <si>
     <t>BuffDatas\BaseBuffDefine.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level.EventItems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level.LevelItems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level.LevelBattleItems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelBattleItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelDatas\Events.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelDatas\Levels.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelDatas\Levels_Battle.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -524,23 +560,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="2" max="2" width="29.08203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -613,7 +649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -639,7 +675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
@@ -653,7 +689,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
@@ -667,7 +703,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
@@ -681,7 +717,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -695,7 +731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
@@ -707,6 +743,48 @@
       </c>
       <c r="E8" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Configs/Datas/__tables__.xlsx
+++ b/Luban/Configs/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE957CA3-C8CD-4703-B3AF-21715BE3EB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61717DD3-5D11-4E9F-8B69-A5E00F015CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="3440" windowWidth="19200" windowHeight="10250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>LevelDatas\Levels_Battle.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level.CardLibraries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardLibrary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelDatas\CardLibraries.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -560,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -787,6 +799,20 @@
         <v>53</v>
       </c>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Configs/Datas/__tables__.xlsx
+++ b/Luban/Configs/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B816A5-0958-4666-8A8F-EA3E7296C6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61717DD3-5D11-4E9F-8B69-A5E00F015CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -169,6 +169,54 @@
   </si>
   <si>
     <t>BuffDatas\BaseBuffDefine.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level.EventItems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level.LevelItems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level.LevelBattleItems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelBattleItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelDatas\Events.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelDatas\Levels.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelDatas\Levels_Battle.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level.CardLibraries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardLibrary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelDatas\CardLibraries.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -524,23 +572,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="2" max="2" width="29.08203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -613,7 +661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -639,7 +687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
@@ -653,7 +701,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
@@ -667,7 +715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
@@ -681,7 +729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -695,7 +743,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
@@ -707,6 +755,62 @@
       </c>
       <c r="E8" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Configs/Datas/__tables__.xlsx
+++ b/Luban/Configs/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61717DD3-5D11-4E9F-8B69-A5E00F015CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897EB3AE-1CE8-4DAA-BABC-2E0EFF8D4B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3910" yWindow="6260" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>LevelDatas\CardLibraries.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelDatas\Events_Dialog.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventDialogItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level.EventDialogItems</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -572,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -773,43 +785,57 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Luban/Configs/Datas/__tables__.xlsx
+++ b/Luban/Configs/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18490\Documents\GitHub\genpai\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897EB3AE-1CE8-4DAA-BABC-2E0EFF8D4B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63310A7-29DA-49D1-8743-D04E9BD871B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3910" yWindow="6260" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>level.EventDialogItems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level.LevelsSave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelsSaveItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelDatas\Levels_Save.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -839,6 +851,20 @@
         <v>56</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
